--- a/Modèle-audit-SEO1.xlsx
+++ b/Modèle-audit-SEO1.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="76">
   <si>
     <t xml:space="preserve">Catégorie</t>
   </si>
@@ -40,163 +40,214 @@
     <t xml:space="preserve">Référence</t>
   </si>
   <si>
+    <t xml:space="preserve">SEO </t>
+  </si>
+  <si>
+    <t xml:space="preserve">La sémantique du html n’a pas été respectée</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L’objectif principal du HTML est de structurer du contenu ou de lui donner du sens</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Respecté l’ordre de balise sématique</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Modification de block 1 (devenu header) ,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://fr.semrush.com/blog/balises-structurelles-html-semantique/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cela va ainsi permettre aux moteurs de recherche et aux navigateurs de</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Block 3,4 ( devenu section), block 8(devenu footer)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">« lire » nos pages et de « comprendre » ce que représente chaque type </t>
+  </si>
+  <si>
+    <t xml:space="preserve">de contenu pour les afficher au mieux dans le cas d’un </t>
+  </si>
+  <si>
+    <t xml:space="preserve">navigateur ou pour pouvoir les présenter à des gens effectuant une recherche</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sur un sujet que notre page traite dans le cas d’un moteur de recherche. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">absence de sitemap</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Un sitemap est un fichier dans lequel vous donnez </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://backlinko.com/hub/seo/sitemaps</t>
+  </si>
+  <si>
+    <t xml:space="preserve">des informations sur les pages.Les moteurs de recherche</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Création de une site map</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Crée et mettre une site map </t>
+  </si>
+  <si>
+    <t xml:space="preserve">tels que Google lisent ce fichier pour explorer plus efficacement votre site</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Un sitemap indique à Google les fichiers que vous jugez </t>
+  </si>
+  <si>
+    <t xml:space="preserve">importants sur votre site et fournit également des</t>
+  </si>
+  <si>
+    <t xml:space="preserve">informations précieuses sur ces fichiers</t>
+  </si>
+  <si>
     <t xml:space="preserve">SEO</t>
   </si>
   <si>
-    <t xml:space="preserve">N’a pas de titre</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Contenu de balise &lt;titre&gt; va  optimiser référencement du site</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mettre obligatoirement ce tittre dans le &lt;head&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ajauter le balise </t>
+    <t xml:space="preserve">absence de title</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bien optimiser son référencement naturel, la balise title est essentiel.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ajauter le balise title sur deux pages</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.anthedesign.fr/referencement/balise-title-titre-seo/</t>
   </si>
   <si>
-    <t xml:space="preserve">Site n’a pas de discription </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Contenu de méta  discription vas aider le référencement de la site  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">mettre obligatoirement ce balise dans le &lt;head&gt;</t>
+    <t xml:space="preserve">elle donne des indications pertinentes quant au contenu d’une page. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Elle doit être en lien avec le mot-clé cible.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Les robots d’indexation ou crawlers considèrent le balises comme des </t>
+  </si>
+  <si>
+    <t xml:space="preserve">facteurs SEO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">absence de meta discription </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Son objectif est de décrire le contenu de  page en la plaçant dans un contexte</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mettre ce balise meta description dans le &lt;head&gt;</t>
   </si>
   <si>
     <t xml:space="preserve">Ajouter le discription avec les mots clés</t>
   </si>
   <si>
-    <t xml:space="preserve">N’a pas de meta robot</t>
-  </si>
-  <si>
-    <t xml:space="preserve">le google bot ne présent pas dans le site</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ajouter le balise robot</t>
-  </si>
-  <si>
-    <t xml:space="preserve">avec index,follow</t>
-  </si>
-  <si>
-    <t xml:space="preserve">n’a pas de site map</t>
-  </si>
-  <si>
-    <t xml:space="preserve">facilite grandement et améliore la qualité du travail des crawlers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mettre le site map</t>
-  </si>
-  <si>
-    <t xml:space="preserve">N’a pas de meta keyword</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Key vas aider  google pour trouver le site</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ajouter le keywords</t>
+    <t xml:space="preserve">https://moz.com/learn/seo/meta-description</t>
   </si>
   <si>
     <t xml:space="preserve">SEO/Accessibilité</t>
   </si>
   <si>
-    <t xml:space="preserve">N’a pas de lang attribute</t>
-  </si>
-  <si>
-    <t xml:space="preserve">google ne poux pas identifier le lange de la site</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Diclairer une lange pour le site</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ajouter le lang attribute</t>
-  </si>
-  <si>
-    <t xml:space="preserve">N’a pas de mots cles dans le senction header</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mots cles vas aider le référencement de la site  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">metter des mots clés visible avec le logo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ajouter le mots clés</t>
-  </si>
-  <si>
-    <t xml:space="preserve">'black hat ’ mots cles</t>
-  </si>
-  <si>
-    <t xml:space="preserve">n’a pas de alt dans les liens a – black hat liens</t>
-  </si>
-  <si>
-    <t xml:space="preserve">attribute alt des balise &lt;a&gt; manque des mot clés et le lien sont vides</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lien &lt;a&gt; attribute alt avec les mots clés</t>
-  </si>
-  <si>
-    <t xml:space="preserve">répéter les mots clés dans l'attribut alt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pas mettre les liens vides</t>
-  </si>
-  <si>
-    <t xml:space="preserve">suprimer les liens vides</t>
-  </si>
-  <si>
-    <t xml:space="preserve">les color sont sombre</t>
-  </si>
-  <si>
-    <t xml:space="preserve">les text ne sont pas bien visible</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mettre les text bien visible are les color bien claire</t>
-  </si>
-  <si>
-    <t xml:space="preserve">modification de backgrondcolor et color de text</t>
-  </si>
-  <si>
-    <t xml:space="preserve">page contact n’a pas bien organiser</t>
-  </si>
-  <si>
-    <t xml:space="preserve">le page n’est pas claire pour le client</t>
-  </si>
-  <si>
-    <t xml:space="preserve">organisation de client data est trés important </t>
-  </si>
-  <si>
-    <t xml:space="preserve">modification de page contact</t>
+    <t xml:space="preserve"> lang attribute n’a pas bien definir </t>
+  </si>
+  <si>
+    <t xml:space="preserve">L’attribut universel lang permet de definir la lang utilisée pour l’element</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Declairer une lang pour le site</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Modifier le lang attribut en ‘’fr”</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.w3schools.com/tags/att_lang.asp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Label non associés avec les input </t>
+  </si>
+  <si>
+    <t xml:space="preserve">L'élément HTML &lt;label&gt; représente une légende pour un objet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Associer le label avec le input tag</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://developer.mozilla.org/fr/docs/Web/HTML/Element/label</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d'une interface utilisateur. Il peut être associé à un </t>
+  </si>
+  <si>
+    <t xml:space="preserve">contrôle en utilisant l'attribut for ou en plaçant l'élément du contrôle à l'intérieur </t>
+  </si>
+  <si>
+    <t xml:space="preserve">de l'élément &lt;label&gt;.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">absence de ari-label</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Are label  utilisé pour décrire une structure d'application ou de document, telle que banner, complementary, contentinfo, main, navigation, search</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ajouter le area-label</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.washington.edu/accessibility/web/landmarks/</t>
   </si>
   <si>
     <t xml:space="preserve">SEO/Performance</t>
   </si>
   <si>
-    <t xml:space="preserve">contenu image sont lourde</t>
-  </si>
-  <si>
-    <t xml:space="preserve">les image sont grande</t>
-  </si>
-  <si>
-    <t xml:space="preserve">metter les image plus leger possible</t>
-  </si>
-  <si>
-    <t xml:space="preserve">modification de taille de les images</t>
-  </si>
-  <si>
-    <t xml:space="preserve">javascript n’a pas été minifier</t>
-  </si>
-  <si>
-    <t xml:space="preserve">les temps de telechagement de la site vas augmanter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">minifier les dossier</t>
-  </si>
-  <si>
-    <t xml:space="preserve">minifier les javascript et css files</t>
+    <t xml:space="preserve">le text sont sombre et n’a pas bien visible</t>
+  </si>
+  <si>
+    <t xml:space="preserve">l'accessibilité de  site internet passe forcément par le choix des couleurs.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Les colour ne doit pas sombre et le text doit étré visible</t>
+  </si>
+  <si>
+    <t xml:space="preserve">modification de colour de background et adjuster le taile de text</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.yoma-web.com/conseils-referencement/webdesign/accessibilite-couleur-contraste</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Et ces couleurs doivent être accessible à tous, songez aux malvoyants, ou encore aux daltoniens.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Les image sont lourde</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quande les image sont lourde le telechargement de site est long . Dont ca ne favorise pas </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mettre les image en bon format , compresser les image</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.seobility.net/en/wiki/Image_SEO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">le performance de la site</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Javascript , css n’a pas été minifier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quande les fichier sont lourd le navigateur met plus de temps pour charger le site</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mettre les fichier minifier en utilient des application ( minifier.org)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mettre les fichier minifier </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://auniqueweb.in/minify-resources/</t>
   </si>
 </sst>
 </file>
@@ -212,6 +263,7 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -234,6 +286,7 @@
       <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -241,17 +294,20 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="12"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -302,7 +358,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -325,6 +381,10 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -404,21 +464,22 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Z29"/>
+  <dimension ref="A1:Z40"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D35" activeCellId="0" sqref="D35"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D29" activeCellId="0" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="26.9106382978723"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="42.1914893617021"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="55.9957446808511"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="39.6297872340426"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="43.9106382978723"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="53.2085106382979"/>
-    <col collapsed="false" hidden="false" max="26" min="7" style="0" width="12.9489361702128"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="30.1744680851064"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="47.2893617021277"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="71.4936170212766"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="45.1914893617021"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="52.8425531914894"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="59.7829787234043"/>
+    <col collapsed="false" hidden="false" max="26" min="7" style="0" width="14.5234042553191"/>
+    <col collapsed="false" hidden="false" max="1025" min="27" style="0" width="9.45957446808511"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -466,10 +527,10 @@
       <c r="B2" s="4"/>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+      <c r="A3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C3" s="0" t="s">
@@ -478,7 +539,7 @@
       <c r="D3" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="0" t="s">
         <v>10</v>
       </c>
       <c r="F3" s="0" t="s">
@@ -486,226 +547,327 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="3"/>
       <c r="B4" s="4"/>
+      <c r="C4" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+      <c r="A5" s="3"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="3"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="3"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="3"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="3"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="5"/>
+    </row>
+    <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5" s="0" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B6" s="4"/>
-    </row>
-    <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B7" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="D7" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="E7" s="4" t="s">
+      <c r="B10" s="4" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D8" s="0" t="s">
+      <c r="C10" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="E8" s="4"/>
-    </row>
-    <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E9" s="4"/>
-    </row>
-    <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="B10" s="0" t="s">
+      <c r="F10" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="0" t="s">
+    </row>
+    <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A11" s="3"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="0" t="s">
+      <c r="D11" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="E10" s="0" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="B12" s="4" t="s">
+      <c r="E11" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="0" t="s">
+    </row>
+    <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A12" s="3"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="D12" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="E12" s="0" t="s">
+    </row>
+    <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A13" s="3"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="5" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
+    <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A14" s="3"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B15" s="0" t="s">
+    </row>
+    <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A15" s="3"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C15" s="0" t="s">
+    </row>
+    <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A16" s="3"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="5"/>
+    </row>
+    <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="D15" s="0" t="s">
+      <c r="B17" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="E15" s="0" t="s">
+      <c r="C17" s="5" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="B17" s="4" t="s">
+      <c r="E17" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C17" s="0" t="s">
+      <c r="F17" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="D17" s="0" t="s">
+    </row>
+    <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C18" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="E17" s="0" t="s">
+      <c r="E18" s="4"/>
+    </row>
+    <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C19" s="5" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B18" s="4" t="s">
+      <c r="E19" s="4"/>
+    </row>
+    <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C20" s="5" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B19" s="4"/>
-    </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="B20" s="4" t="s">
+      <c r="E20" s="4"/>
+    </row>
+    <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C21" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="C20" s="0" t="s">
+      <c r="E21" s="4"/>
+    </row>
+    <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B22" s="4"/>
+    </row>
+    <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="B23" s="0" t="s">
         <v>37</v>
       </c>
-      <c r="D20" s="0" t="s">
+      <c r="C23" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="E20" s="5" t="s">
+      <c r="D23" s="0" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B21" s="4"/>
-      <c r="D21" s="0" t="s">
+      <c r="E23" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="E21" s="0" t="s">
+      <c r="F23" s="0" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B22" s="4"/>
-    </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="B23" s="4" t="s">
+    <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B24" s="4"/>
+    </row>
+    <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="C23" s="0" t="s">
+      <c r="B25" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="D23" s="0" t="s">
+      <c r="C25" s="0" t="s">
         <v>44</v>
       </c>
-      <c r="E23" s="0" t="s">
+      <c r="D25" s="0" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B24" s="4"/>
-    </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="B25" s="0" t="s">
+      <c r="E25" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="C25" s="0" t="s">
+      <c r="F25" s="0" t="s">
         <v>47</v>
       </c>
-      <c r="D25" s="0" t="s">
+    </row>
+    <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D26" s="5"/>
+      <c r="E26" s="4"/>
+    </row>
+    <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A27" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="B27" s="0" t="s">
         <v>48</v>
       </c>
-      <c r="E25" s="0" t="s">
+      <c r="C27" s="5" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="0" t="s">
+      <c r="E27" s="0" t="s">
         <v>50</v>
       </c>
-      <c r="B27" s="0" t="s">
+      <c r="F27" s="0" t="s">
         <v>51</v>
       </c>
-      <c r="C27" s="0" t="s">
+    </row>
+    <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C28" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="D27" s="0" t="s">
+    </row>
+    <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C29" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="E27" s="0" t="s">
+    </row>
+    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B30" s="4"/>
+      <c r="C30" s="0" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="0" t="s">
-        <v>50</v>
-      </c>
-      <c r="B29" s="0" t="s">
+    <row r="32" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="B32" s="0" t="s">
         <v>55</v>
       </c>
-      <c r="C29" s="0" t="s">
+      <c r="C32" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="D29" s="0" t="s">
+      <c r="E32" s="0" t="s">
         <v>57</v>
       </c>
-      <c r="E29" s="0" t="s">
+      <c r="F32" s="0" t="s">
         <v>58</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="B34" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="D34" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="E34" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="F34" s="0" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B35" s="4"/>
+      <c r="C35" s="5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B36" s="4"/>
+    </row>
+    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C37" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="D37" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="E37" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="F37" s="0" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B38" s="4"/>
+      <c r="C38" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="E38" s="5"/>
+    </row>
+    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B39" s="4"/>
+      <c r="E39" s="5"/>
+    </row>
+    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="B40" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="C40" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="D40" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="E40" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="F40" s="0" t="s">
+        <v>75</v>
       </c>
     </row>
   </sheetData>

--- a/Modèle-audit-SEO1.xlsx
+++ b/Modèle-audit-SEO1.xlsx
@@ -187,7 +187,7 @@
     <t xml:space="preserve">de l'élément &lt;label&gt;.</t>
   </si>
   <si>
-    <t xml:space="preserve">absence de ari-label</t>
+    <t xml:space="preserve">absence de ara-label</t>
   </si>
   <si>
     <t xml:space="preserve">Are label  utilisé pour décrire une structure d'application ou de document, telle que banner, complementary, contentinfo, main, navigation, search</t>
@@ -466,20 +466,19 @@
   </sheetPr>
   <dimension ref="A1:Z40"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D29" activeCellId="0" sqref="D29"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B32" activeCellId="0" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="30.1744680851064"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="47.2893617021277"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="71.4936170212766"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="45.1914893617021"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="52.8425531914894"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="59.7829787234043"/>
-    <col collapsed="false" hidden="false" max="26" min="7" style="0" width="14.5234042553191"/>
-    <col collapsed="false" hidden="false" max="1025" min="27" style="0" width="9.45957446808511"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="31.9744680851064"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="50.2127659574468"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="75.7702127659575"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="47.9617021276596"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="56.068085106383"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="63.3872340425532"/>
+    <col collapsed="false" hidden="false" max="26" min="7" style="0" width="15.4255319148936"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
